--- a/output_fin_nk/all_schools_combined.xlsx
+++ b/output_fin_nk/all_schools_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neelabhkashyap/Franklin_Templton_Industry_Project/output_fin_nk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C9092-71D9-AB4D-A5DB-582AB29F9D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353D2DD-84E3-3E4F-B652-746A98719FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,15 +476,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" customWidth="1"/>

--- a/output_fin_nk/all_schools_combined.xlsx
+++ b/output_fin_nk/all_schools_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neelabhkashyap/Franklin_Templton_Industry_Project/output_fin_nk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353D2DD-84E3-3E4F-B652-746A98719FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C9092-71D9-AB4D-A5DB-582AB29F9D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,15 +476,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" customWidth="1"/>
